--- a/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED76E7A9-F88B-4E51-ACE4-632F2EF71917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA4D62A-7602-451E-91DC-C6C61CC7AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30123485-865D-4A87-8A3A-526E68A63AAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F80CCDA-C465-40C6-9C27-AC5FB6794D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>88,23%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>11,77%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>70,48%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,508 +196,502 @@
     <t>62,09%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>69,47%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>63,88%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D6DA7-076F-465B-BA8D-E40241C23DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCED1F9-4CFA-4046-A72B-F5646081E717}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1860,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19218B9-9DEF-4B29-A04A-FCA2B23D1A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D627F245-22F3-4348-8E26-D1FA6510BBE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2297,7 +2291,7 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -2309,10 +2303,10 @@
         <v>25681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>91</v>
@@ -2324,13 +2318,13 @@
         <v>29692</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2339,13 @@
         <v>1909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2360,13 +2354,13 @@
         <v>904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2375,13 +2369,13 @@
         <v>2813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2443,13 @@
         <v>35005</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2464,13 +2458,13 @@
         <v>199826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -2479,13 +2473,13 @@
         <v>234830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2494,13 @@
         <v>8684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2515,13 +2509,13 @@
         <v>13204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2530,13 +2524,13 @@
         <v>21889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D2BB2-3EA3-4337-AF05-1E1400EBFFD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EB873-B03C-43D4-9505-BE6816D40DD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,10 +2729,10 @@
         <v>9934</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>91</v>
@@ -2750,10 +2744,10 @@
         <v>50313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>91</v>
@@ -2765,13 +2759,13 @@
         <v>60247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2780,13 @@
         <v>924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2801,13 +2795,13 @@
         <v>2128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2816,13 +2810,13 @@
         <v>3052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2884,13 @@
         <v>17725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -2905,13 +2899,13 @@
         <v>57071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -2920,13 +2914,13 @@
         <v>74796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2935,13 @@
         <v>6516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2956,13 +2950,13 @@
         <v>9851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2971,13 +2965,13 @@
         <v>16367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,10 +3039,10 @@
         <v>4233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -3060,13 +3054,13 @@
         <v>19256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3075,13 +3069,13 @@
         <v>23488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3090,13 @@
         <v>2127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -3111,13 +3105,13 @@
         <v>5283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3126,13 +3120,13 @@
         <v>7411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3194,13 @@
         <v>31892</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -3215,13 +3209,13 @@
         <v>126639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3230,13 +3224,13 @@
         <v>158531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3245,13 @@
         <v>9568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3266,13 +3260,13 @@
         <v>17262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3281,13 +3275,13 @@
         <v>26829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA4D62A-7602-451E-91DC-C6C61CC7AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3C2C60-8329-48C2-BA49-5E267E031D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F80CCDA-C465-40C6-9C27-AC5FB6794D0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72259ECC-55E8-440B-9028-2B160F57C6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -76,622 +76,634 @@
     <t>88,23%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>84,9%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>19,09%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>58,15%</t>
+    <t>65,02%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>87,2%</t>
+    <t>87,21%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>41,85%</t>
+    <t>34,98%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>12,8%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>73,12%</t>
   </si>
   <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>66,55%</t>
   </si>
   <si>
-    <t>17,73%</t>
+    <t>29,6%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>82,27%</t>
+    <t>70,4%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>93,05%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCED1F9-4CFA-4046-A72B-F5646081E717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A409B177-282F-428F-AD10-5E38AF1655E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D627F245-22F3-4348-8E26-D1FA6510BBE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC59D42-7106-4F37-AC24-A88B8C5DA7C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2291,7 +2303,7 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -2303,10 +2315,10 @@
         <v>25681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>91</v>
@@ -2318,13 +2330,13 @@
         <v>29692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2351,13 @@
         <v>1909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2354,13 +2366,13 @@
         <v>904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2369,13 +2381,13 @@
         <v>2813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2455,13 @@
         <v>35005</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2458,13 +2470,13 @@
         <v>199826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -2473,13 +2485,13 @@
         <v>234830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2506,13 @@
         <v>8684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2509,13 +2521,13 @@
         <v>13204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2524,13 +2536,13 @@
         <v>21889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EB873-B03C-43D4-9505-BE6816D40DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AD7085-87E1-4137-946B-55E3A8381A15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2729,10 +2741,10 @@
         <v>9934</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>91</v>
@@ -2744,10 +2756,10 @@
         <v>50313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>91</v>
@@ -2759,13 +2771,13 @@
         <v>60247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2792,13 @@
         <v>924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2795,13 +2807,13 @@
         <v>2128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2810,13 +2822,13 @@
         <v>3052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2896,13 @@
         <v>17725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -2899,13 +2911,13 @@
         <v>57071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -2914,13 +2926,13 @@
         <v>74796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2947,13 @@
         <v>6516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2950,13 +2962,13 @@
         <v>9851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2965,13 +2977,13 @@
         <v>16367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,10 +3051,10 @@
         <v>4233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -3054,13 +3066,13 @@
         <v>19256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3069,13 +3081,13 @@
         <v>23488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3102,13 @@
         <v>2127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -3105,13 +3117,13 @@
         <v>5283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3120,13 +3132,13 @@
         <v>7411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3206,13 @@
         <v>31892</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -3209,13 +3221,13 @@
         <v>126639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3224,13 +3236,13 @@
         <v>158531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3257,13 @@
         <v>9568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3260,13 +3272,13 @@
         <v>17262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3275,13 +3287,13 @@
         <v>26829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3C2C60-8329-48C2-BA49-5E267E031D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ED5A71-DF47-490A-86B9-623812AC4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72259ECC-55E8-440B-9028-2B160F57C6A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C5C3296-3D44-4FEF-ABC7-B56A81043F96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -70,445 +70,445 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>10,6%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
@@ -517,175 +517,175 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>65,02%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>87,21%</t>
+    <t>86,15%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>87,39%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>34,98%</t>
+    <t>43,07%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>12,79%</t>
+    <t>13,85%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>12,61%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>73,12%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>66,55%</t>
   </si>
   <si>
-    <t>29,6%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>70,4%</t>
+    <t>82,27%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>12,0%</t>
@@ -694,16 +694,10 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A409B177-282F-428F-AD10-5E38AF1655E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A1CC4-7021-42E7-93E8-DFC81CE53F18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1866,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC59D42-7106-4F37-AC24-A88B8C5DA7C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB141EA-432A-4E0D-85B9-A35C769A394A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2617,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AD7085-87E1-4137-946B-55E3A8381A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF1C27-1FE3-4E73-9C5E-92CC56851488}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,7 +2771,7 @@
         <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2786,13 @@
         <v>924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2807,13 +2801,13 @@
         <v>2128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2822,13 +2816,13 @@
         <v>3052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2890,13 @@
         <v>17725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -2911,13 +2905,13 @@
         <v>57071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -2926,13 +2920,13 @@
         <v>74796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2941,13 @@
         <v>6516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2962,13 +2956,13 @@
         <v>9851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2977,13 +2971,13 @@
         <v>16367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,10 +3045,10 @@
         <v>4233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -3066,13 +3060,13 @@
         <v>19256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3081,13 +3075,13 @@
         <v>23488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3096,13 @@
         <v>2127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -3117,13 +3111,13 @@
         <v>5283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3132,13 +3126,13 @@
         <v>7411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3200,13 @@
         <v>31892</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -3221,13 +3215,13 @@
         <v>126639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3236,7 +3230,7 @@
         <v>158531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>211</v>
@@ -3278,7 +3272,7 @@
         <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3287,13 +3281,13 @@
         <v>26829</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ED5A71-DF47-490A-86B9-623812AC4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3AB810-740A-4779-8313-79DCB2056AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C5C3296-3D44-4FEF-ABC7-B56A81043F96}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48272636-80F5-41FD-87C1-FF593FD4E371}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822A1CC4-7021-42E7-93E8-DFC81CE53F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7161CF-4EA2-48E3-AB18-39B1997706E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1710,7 +1710,7 @@
         <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>153799</v>
+        <v>153800</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1812,7 +1812,7 @@
         <v>171</v>
       </c>
       <c r="I15" s="7">
-        <v>172160</v>
+        <v>172161</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB141EA-432A-4E0D-85B9-A35C769A394A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA58AED-C75D-4863-9005-99AF29040B0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2611,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF1C27-1FE3-4E73-9C5E-92CC56851488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1414953-1005-47E9-B44A-AB1732F3ACD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
